--- a/Images_and_Data/Data/World_pop_data.xlsx
+++ b/Images_and_Data/Data/World_pop_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D94C3E-E055-4BA1-A027-8CC8A26752E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7576D-2249-41AE-8650-1320DDDAB58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16305" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16305" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World_population_estimates" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1635,7 @@
         <v>7.325996709</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>7.4600210000000002</v>
       </c>
     </row>
   </sheetData>
